--- a/nba-over-under-2023-2024/picks.xlsx
+++ b/nba-over-under-2023-2024/picks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chester/Desktop/ismayc.github.io/nba-over-under-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E022B9D-E6EC-E046-B48B-23CC2D5E4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E3EDCDF-C766-874F-A0F5-617EB5C02AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2240" windowWidth="14140" windowHeight="19720" activeTab="1" xr2:uid="{C9BABCDB-CBFD-8A40-A903-BB9D75C68790}"/>
+    <workbookView xWindow="1440" yWindow="2240" windowWidth="14140" windowHeight="19720" activeTab="2" xr2:uid="{C9BABCDB-CBFD-8A40-A903-BB9D75C68790}"/>
   </bookViews>
   <sheets>
     <sheet name="picks" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
     <t>Andy</t>
   </si>
   <si>
-    <t>PHO</t>
+    <t>PHX</t>
   </si>
 </sst>
 </file>
@@ -4069,7 +4069,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCAFC27-68EA-F14B-9842-E64C61A112DD}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
@@ -4433,8 +4433,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2645E3-9323-794D-9317-15824D639067}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
